--- a/meta/telegrams/CommonResponse.xlsx
+++ b/meta/telegrams/CommonResponse.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/cacco/oplux/oplux-meta/meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22DB2B2-4F67-A34C-A46E-94AEC2194AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25F104-2119-5B4D-9C1F-5263253BD9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="4140" windowWidth="25360" windowHeight="14640" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="2" r:id="rId1"/>
-    <sheet name="config" sheetId="3" r:id="rId2"/>
+    <sheet name="config" sheetId="4" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="accessScope">config!$B$4:$B$6</definedName>
-    <definedName name="accessScope2">config!$B$4:$B$5</definedName>
-    <definedName name="adjustDefaultValue">config!$J$4:$J$5</definedName>
-    <definedName name="adjustFiledName">config!$H$4:$H$5</definedName>
-    <definedName name="createToString">config!$F$4:$F$5</definedName>
-    <definedName name="isAbstract">config!$D$4:$D$5</definedName>
-    <definedName name="others">config!$L$4:$L$5</definedName>
+    <definedName name="accessScope">config!$B$4:$B$5</definedName>
+    <definedName name="adjustDefaultValue" localSheetId="1">config!$N$4:$N$5</definedName>
+    <definedName name="adjustDefaultValue">config!$N$4:$N$5</definedName>
+    <definedName name="adjustFiledName" localSheetId="1">config!$L$4:$L$5</definedName>
+    <definedName name="adjustFiledName">#REF!</definedName>
+    <definedName name="createToString" localSheetId="1">config!$J$4:$J$5</definedName>
+    <definedName name="createToString">#REF!</definedName>
+    <definedName name="isAbstract" localSheetId="1">config!$H$4:$H$5</definedName>
+    <definedName name="isAbstract">#REF!</definedName>
+    <definedName name="isData">config!$F$4:$F$5</definedName>
+    <definedName name="isFinal">config!$D$4:$D$5</definedName>
+    <definedName name="others" localSheetId="1">#REF!</definedName>
+    <definedName name="others">#REF!</definedName>
     <definedName name="Submit有無" localSheetId="1">#REF!</definedName>
     <definedName name="Submit有無" localSheetId="0">#REF!</definedName>
     <definedName name="Submit有無">#REF!</definedName>
-    <definedName name="toString">config!$F$4:$F$5</definedName>
+    <definedName name="theOther">config!$P$4:$P$5</definedName>
+    <definedName name="toString" localSheetId="1">config!$J$4:$J$5</definedName>
+    <definedName name="toString">#REF!</definedName>
     <definedName name="Validate実装パターン" localSheetId="1">#REF!</definedName>
     <definedName name="Validate実装パターン" localSheetId="0">#REF!</definedName>
     <definedName name="Validate実装パターン">#REF!</definedName>
@@ -50,10 +62,18 @@
     <definedName name="必須" localSheetId="0">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>クラス名</t>
   </si>
@@ -97,22 +117,6 @@
   </si>
   <si>
     <t>CommonResponse</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ResponseHeader</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>通信に関するメタ情報</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>status</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -245,11 +249,6 @@
   </si>
   <si>
     <t>共通レスポンスを表すオブジェクトです。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答ステータス．通信上のエラーとvalidationエラーの場合は"dismiss"を，&lt;br&gt;
-業務ロジックまで処理が到達した場合は"accept"を返す</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -381,6 +380,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>その他</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>配置ディレクトリ</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ハイチ </t>
@@ -400,19 +407,112 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Nullable</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その他</t>
+    <t>new ApiTelegram()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理時間（ミリ秒）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new Array&lt;ErrorItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理結果（success/error）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルト(Kt)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;ErrorItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイナル</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>new RequestHeader()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dismiss</t>
+    <t>dataクラス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>総称型</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T : ApiTelegram</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ クラスのGenericを定義するために使用します。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイギスル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>型(Kt)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>総称型(Kt)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* kotlin 独自 */</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>抽象クラス</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウショウクラス </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンストラクタ引数</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒキスウ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -516,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -821,9 +921,57 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -838,54 +986,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,21 +1001,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -942,21 +1029,6 @@
       </top>
       <bottom style="hair">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1165,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1104,97 +1189,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,12 +1207,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1278,20 +1433,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1300,127 +1455,170 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,6 +1704,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="valueObject"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="valueObject"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1833,63 +2061,65 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="31" customWidth="1"/>
-    <col min="8" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="9" width="20.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="31" customWidth="1"/>
+    <col min="12" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28" style="1" customWidth="1"/>
+    <col min="20" max="20" width="33.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="F5" s="80"/>
+      <c r="J5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1899,887 +2129,1148 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="81"/>
+      <c r="J6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" s="82"/>
+      <c r="J7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-    </row>
-    <row r="9" spans="1:15" s="31" customFormat="1">
-      <c r="A9" s="73" t="s">
+      <c r="F8" s="82"/>
+      <c r="J8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+    </row>
+    <row r="9" spans="1:19" s="31" customFormat="1">
+      <c r="A9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="31" customFormat="1">
+      <c r="A10" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="31" customFormat="1">
+      <c r="A11" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-    </row>
-    <row r="10" spans="1:15" s="31" customFormat="1">
-      <c r="A10" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="99"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="89"/>
+      <c r="K11" s="117"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-    </row>
-    <row r="13" spans="1:15" s="31" customFormat="1">
-      <c r="A13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-    </row>
-    <row r="14" spans="1:15" s="31" customFormat="1">
-      <c r="A14" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
-        <v>52</v>
-      </c>
+      <c r="F12" s="81"/>
+      <c r="J12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="81"/>
+      <c r="J13" s="76"/>
+      <c r="K13"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+    </row>
+    <row r="14" spans="1:19" s="31" customFormat="1">
+      <c r="A14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-    </row>
-    <row r="15" spans="1:15" s="31" customFormat="1">
-      <c r="A15" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:19" s="31" customFormat="1">
+      <c r="A15" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-    </row>
-    <row r="16" spans="1:15" s="31" customFormat="1">
-      <c r="A16" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:19" s="31" customFormat="1">
+      <c r="A16" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="92"/>
-    </row>
-    <row r="18" spans="1:17" s="31" customFormat="1">
-      <c r="A18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-    </row>
-    <row r="19" spans="1:17" s="31" customFormat="1">
-      <c r="A19" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-    </row>
-    <row r="20" spans="1:17" s="31" customFormat="1">
-      <c r="A20" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-    </row>
-    <row r="21" spans="1:17" s="31" customFormat="1">
-      <c r="A21" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:19" s="31" customFormat="1">
+      <c r="A17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:19" s="31" customFormat="1">
+      <c r="A18" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="77"/>
+      <c r="K18"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+    </row>
+    <row r="19" spans="1:19" s="31" customFormat="1">
+      <c r="A19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+    </row>
+    <row r="20" spans="1:19" s="31" customFormat="1">
+      <c r="A20" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+    </row>
+    <row r="21" spans="1:19" s="31" customFormat="1">
+      <c r="A21" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-    </row>
-    <row r="22" spans="1:17" s="31" customFormat="1">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-    </row>
-    <row r="23" spans="1:17" s="31" customFormat="1">
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="1:19" s="31" customFormat="1">
       <c r="A23" s="28" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-    </row>
-    <row r="24" spans="1:17" s="31" customFormat="1">
-      <c r="A24" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
+      <c r="J23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+    </row>
+    <row r="24" spans="1:19" s="31" customFormat="1">
+      <c r="A24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="91"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-    </row>
-    <row r="25" spans="1:17" s="31" customFormat="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="97"/>
+      <c r="J24" s="74"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+    </row>
+    <row r="25" spans="1:19" s="31" customFormat="1">
+      <c r="A25" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="91"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-    </row>
-    <row r="26" spans="1:17" s="31" customFormat="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="97"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="74"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+    </row>
+    <row r="26" spans="1:19" s="31" customFormat="1">
+      <c r="A26" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="91"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-    </row>
-    <row r="27" spans="1:17" s="31" customFormat="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-    </row>
-    <row r="28" spans="1:17" s="31" customFormat="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A30" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="77" t="s">
-        <v>2</v>
-      </c>
+      <c r="I26" s="91"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+    </row>
+    <row r="27" spans="1:19" s="31" customFormat="1">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+    </row>
+    <row r="28" spans="1:19" s="31" customFormat="1">
+      <c r="A28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+    </row>
+    <row r="29" spans="1:19" s="31" customFormat="1">
+      <c r="A29" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+    </row>
+    <row r="30" spans="1:19" s="31" customFormat="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="75"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="77"/>
       <c r="N30" s="77"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="O30" s="77"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+    </row>
+    <row r="31" spans="1:19" s="31" customFormat="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="75"/>
+      <c r="L31" s="73"/>
       <c r="M31" s="77"/>
       <c r="N31" s="77"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="16">
+      <c r="O31" s="77"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+    </row>
+    <row r="32" spans="1:19" s="31" customFormat="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+    </row>
+    <row r="33" spans="1:21" s="31" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="92"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="12"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A35" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="100"/>
+      <c r="N35" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="100"/>
+      <c r="P35" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="101"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="16">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" ht="28" customHeight="1">
-      <c r="A33" s="16">
-        <v>2</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="16">
-        <v>3</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="16">
-        <v>4</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="F37" s="83">
+        <v>0</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="12"/>
+    </row>
+    <row r="38" spans="1:21" ht="28" customHeight="1">
+      <c r="A38" s="16">
+        <v>2</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>10</v>
+      </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
+      <c r="F38" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="12"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="16">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="F39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="120" t="s">
+        <v>47</v>
+      </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="16">
+        <v>4</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="F40" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="F41" s="43"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="K42" s="120"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="12"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="F43" s="43"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="12"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
+      <c r="K44" s="120"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="12"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="12"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="12"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="12"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="12"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
+  <mergeCells count="16">
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I35:I36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H52:L52 F62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L57:P57 F67 J67 K62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{976789A4-A265-8B4A-97C0-5677F98736C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{976789A4-A265-8B4A-97C0-5677F98736C4}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{26041FED-A5B4-9542-8EB9-D571F19B7F53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{26041FED-A5B4-9542-8EB9-D571F19B7F53}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{D78653E2-1B44-BB43-9FF2-F32493B07EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{D78653E2-1B44-BB43-9FF2-F32493B07EF5}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G46" xr:uid="{4BC3C2E3-30C8-8A43-9E2F-A483914ABC1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J37:J51" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
       <formula1>others</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{B6C9A617-8775-A541-B915-7FD2C7AA68B4}">
+      <formula1>isData</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{953537FD-EF12-D543-B604-CC769442D9BA}">
+      <formula1>isFinal</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{7915C36F-6130-8946-BCF4-B57EF2B12E4B}">
+      <formula1>isAbstract</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{BEF1941C-34F2-974A-B216-D783DC8A88A3}">
+      <formula1>accessScope</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K37:K51" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
+      <formula1>theOther</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
@@ -2791,14 +3282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6221BA5A-81AE-4947-81B8-5633C2BF1DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5E57C3-9A67-A141-9FA4-8337D6665F84}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2806,18 +3297,22 @@
     <col min="1" max="3" width="8.83203125" style="46" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="8.83203125" style="46" customWidth="1"/>
-    <col min="257" max="16384" width="10.83203125" style="46"/>
+    <col min="10" max="10" width="18.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="261" width="8.83203125" style="46" customWidth="1"/>
+    <col min="262" max="16384" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:18" ht="19">
       <c r="A1" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -2827,61 +3322,79 @@
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="45"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="47" t="s">
+      <c r="P3" s="72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D5" s="114"/>
+      <c r="F5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="L4" s="49"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="52"/>
+      <c r="J5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
